--- a/doc/kib/KIB전문.xlsx
+++ b/doc/kib/KIB전문.xlsx
@@ -164,12 +164,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -186,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +212,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,240 +517,307 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="51.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="B3">
+        <f>LEN(A5)</f>
+        <v>581</v>
+      </c>
+      <c r="C3">
+        <f>LEN(A7)</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4">
+        <f>LEN(A5)</f>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6">
+        <f>LEN(A7)</f>
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:3">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
+      <c r="B9">
+        <f>LEN(A10)</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
+      <c r="B11">
+        <f>LEN(A12)</f>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="B14">
+        <f>LEN(A15)</f>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <f>LEN(A17)</f>
+        <v>549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <f>LEN(A22)</f>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <f>LEN(A24)</f>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:2">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:2">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:2">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:2">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:2">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <f>LEN(A33)</f>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <f>LEN(A35)</f>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:2">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:2">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:2">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <f>LEN(A42)</f>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <f>LEN(A44)</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:2">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:2">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:2">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:2">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <f>LEN(A50)</f>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:2">
+      <c r="A51" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <f>LEN(A52)</f>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="3" t="s">
         <v>36</v>
       </c>
@@ -746,7 +834,7 @@
   <dimension ref="A1:A55"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
